--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pawel/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pawel/workspace/rpa-em-ccd-orchestrator/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E68D7C7-4E3C-AB44-997C-BC591B3653AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C5BC0-6967-AE4F-BBCD-B9F7BCD9437B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="460" windowWidth="31940" windowHeight="14640" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="31940" windowHeight="14640" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Change History" sheetId="1" r:id="rId1"/>
@@ -1150,9 +1150,6 @@
     <t>hasCoversheets</t>
   </si>
   <si>
-    <t>http://192.168.1.199:8080/api/new-bundle</t>
-  </si>
-  <si>
     <t>asyncStitchingComplete</t>
   </si>
   <si>
@@ -1163,6 +1160,9 @@
   </si>
   <si>
     <t>Error from Stiching service</t>
+  </si>
+  <si>
+    <t>http://192.168.0.108:8080/api/new-bundle</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2328,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -3016,14 +3018,14 @@
         <v>78</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" t="s">
         <v>60</v>
       </c>
       <c r="F27" s="81"/>
       <c r="G27" s="81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H27" s="91"/>
       <c r="I27" s="81"/>
@@ -4609,7 +4611,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12" s="143" t="s">
         <v>330</v>
@@ -4890,7 +4892,7 @@
       <c r="F1" s="151"/>
       <c r="G1" s="151"/>
     </row>
-    <row r="2" spans="1:7" ht="196" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
@@ -5196,7 +5198,7 @@
         <v>74</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F16" s="146" t="s">
         <v>330</v>
@@ -5352,7 +5354,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6939,8 +6941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7206,7 +7208,7 @@
         <v>115</v>
       </c>
       <c r="L6" s="154" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -7464,10 +7466,10 @@
         <v>37</v>
       </c>
       <c r="D13" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="57" t="s">
         <v>344</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>345</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>174</v>

--- a/src/aat/resources/adv_bundling_functional_tests_ccd_def.xlsx
+++ b/src/aat/resources/adv_bundling_functional_tests_ccd_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pawel/workspace/rpa-em-ccd-orchestrator/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722C5BC0-6967-AE4F-BBCD-B9F7BCD9437B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773244B-010D-934C-8F41-3D459059F220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="460" windowWidth="31940" windowHeight="14640" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="349">
   <si>
     <t>Change History</t>
   </si>
@@ -163,12 +163,6 @@
   </si>
   <si>
     <t>SecurityClassification</t>
-  </si>
-  <si>
-    <t>CCD_BUNDLE_MVP_TYPE</t>
-  </si>
-  <si>
-    <t>CCD_BUNDLE_MVP</t>
   </si>
   <si>
     <t>Public</t>
@@ -1160,6 +1154,15 @@
   </si>
   <si>
     <t>Error from Stiching service</t>
+  </si>
+  <si>
+    <t>CCD_BUNDLE_MVP_TYPE_ASYNC</t>
+  </si>
+  <si>
+    <t>CCD_BUNDLE_MVP_ASYNC</t>
+  </si>
+  <si>
+    <t>CCD_BUNDLE_MVP_v0.2</t>
   </si>
   <si>
     <t>http://192.168.0.108:8080/api/new-bundle</t>
@@ -2270,9 +2273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2348,7 +2349,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -2377,37 +2378,37 @@
         <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="H2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>244</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>246</v>
       </c>
       <c r="K2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -2421,34 +2422,34 @@
         <v>21</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="J3" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -2456,23 +2457,23 @@
         <v>42736</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="78"/>
       <c r="G4" s="78" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
       <c r="K4" s="79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -2480,23 +2481,23 @@
         <v>42736</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="81"/>
       <c r="G5" s="81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
       <c r="J5" s="81"/>
       <c r="K5" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -2504,13 +2505,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F6" s="81"/>
       <c r="G6" s="81" t="s">
@@ -2520,7 +2521,7 @@
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
       <c r="K6" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -2528,23 +2529,23 @@
         <v>42736</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H7" s="84"/>
       <c r="I7" s="84"/>
       <c r="J7" s="84"/>
       <c r="K7" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -2553,23 +2554,23 @@
       </c>
       <c r="B8" s="87"/>
       <c r="C8" s="78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E8" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="78"/>
       <c r="G8" s="78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H8" s="78"/>
       <c r="I8" s="78"/>
       <c r="J8" s="78"/>
       <c r="K8" s="79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -2577,25 +2578,25 @@
         <v>42736</v>
       </c>
       <c r="C9" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>260</v>
-      </c>
       <c r="E9" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H9" s="81"/>
       <c r="I9" s="81"/>
       <c r="J9" s="81"/>
       <c r="K9" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -2604,23 +2605,23 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E10" s="84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
       <c r="J10" s="84"/>
       <c r="K10" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -2629,23 +2630,23 @@
       </c>
       <c r="B11" s="87"/>
       <c r="C11" s="78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E11" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H11" s="78"/>
       <c r="I11" s="78"/>
       <c r="J11" s="78"/>
       <c r="K11" s="79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -2653,25 +2654,25 @@
         <v>42736</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H12" s="81"/>
       <c r="I12" s="81"/>
       <c r="J12" s="81"/>
       <c r="K12" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -2679,25 +2680,25 @@
         <v>42736</v>
       </c>
       <c r="C13" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="81" t="s">
-        <v>264</v>
-      </c>
       <c r="E13" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H13" s="81"/>
       <c r="I13" s="81"/>
       <c r="J13" s="81"/>
       <c r="K13" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -2706,23 +2707,23 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" s="84"/>
       <c r="G14" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H14" s="84"/>
       <c r="I14" s="84"/>
       <c r="J14" s="84"/>
       <c r="K14" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -2731,23 +2732,23 @@
       </c>
       <c r="B15" s="87"/>
       <c r="C15" s="78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="78"/>
       <c r="G15" s="78" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H15" s="78"/>
       <c r="I15" s="78"/>
       <c r="J15" s="78"/>
       <c r="K15" s="79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -2755,23 +2756,23 @@
         <v>42736</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="81"/>
       <c r="G16" s="81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H16" s="81"/>
       <c r="I16" s="81"/>
       <c r="J16" s="81"/>
       <c r="K16" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -2779,19 +2780,19 @@
         <v>42736</v>
       </c>
       <c r="C17" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -2799,23 +2800,23 @@
         <v>42736</v>
       </c>
       <c r="C18" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F18" s="81"/>
       <c r="G18" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
       <c r="J18" s="81"/>
       <c r="K18" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -2823,23 +2824,23 @@
         <v>42736</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F19" s="81"/>
       <c r="G19" s="81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H19" s="81"/>
       <c r="I19" s="81"/>
       <c r="J19" s="81"/>
       <c r="K19" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -2847,25 +2848,25 @@
         <v>42736</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H20" s="81"/>
       <c r="I20" s="81"/>
       <c r="J20" s="81"/>
       <c r="K20" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
@@ -2873,25 +2874,25 @@
         <v>42736</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G21" s="81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
       <c r="K21" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
@@ -2899,19 +2900,19 @@
         <v>42736</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K22" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
@@ -2919,23 +2920,23 @@
         <v>42736</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E23" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H23" s="91"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
       <c r="K23" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
@@ -2943,23 +2944,23 @@
         <v>42736</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E24" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F24" s="81"/>
       <c r="G24" s="81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H24" s="91"/>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
       <c r="K24" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
@@ -2967,23 +2968,23 @@
         <v>42736</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E25" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F25" s="81"/>
       <c r="G25" s="81" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H25" s="91"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
       <c r="K25" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
@@ -2991,23 +2992,23 @@
         <v>42736</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F26" s="81"/>
       <c r="G26" s="81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H26" s="91"/>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
       <c r="K26" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
@@ -3015,23 +3016,23 @@
         <v>42736</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="81"/>
       <c r="G27" s="81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H27" s="91"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
       <c r="K27" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
@@ -3040,23 +3041,23 @@
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="84"/>
       <c r="G28" s="84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H28" s="92"/>
       <c r="I28" s="84"/>
       <c r="J28" s="84"/>
       <c r="K28" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
@@ -3065,23 +3066,23 @@
       </c>
       <c r="B29" s="87"/>
       <c r="C29" s="78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E29" s="78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F29" s="87"/>
       <c r="G29" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
       <c r="K29" s="79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -3089,23 +3090,23 @@
         <v>42736</v>
       </c>
       <c r="C30" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E30" s="81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="93"/>
       <c r="G30" s="81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H30" s="93"/>
       <c r="I30" s="93"/>
       <c r="J30" s="93"/>
       <c r="K30" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
@@ -3113,23 +3114,23 @@
         <v>42736</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E31" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F31" s="93"/>
       <c r="G31" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H31" s="93"/>
       <c r="I31" s="93"/>
       <c r="J31" s="93"/>
       <c r="K31" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
@@ -3137,23 +3138,23 @@
         <v>42736</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F32" s="93"/>
       <c r="G32" s="81" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H32" s="93"/>
       <c r="I32" s="93"/>
       <c r="J32" s="93"/>
       <c r="K32" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -3162,23 +3163,23 @@
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="84" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E33" s="84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="84" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H33" s="90"/>
       <c r="I33" s="90"/>
       <c r="J33" s="90"/>
       <c r="K33" s="85" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="94" t="s">
         <v>11</v>
@@ -3227,16 +3228,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3251,16 +3252,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -3273,13 +3274,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3290,13 +3291,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3307,13 +3308,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3324,10 +3325,10 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -3355,7 +3356,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3381,16 +3382,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3411,16 +3412,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
@@ -3439,13 +3440,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3456,13 +3457,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3473,13 +3474,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3490,10 +3491,10 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -3521,7 +3522,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3547,16 +3548,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>306</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>308</v>
       </c>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
@@ -3577,16 +3578,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
@@ -3605,13 +3606,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3622,13 +3623,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3639,13 +3640,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3656,10 +3657,10 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -3689,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="105" t="s">
         <v>11</v>
@@ -3711,16 +3712,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>299</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="G2" s="98"/>
       <c r="H2" s="98"/>
@@ -3735,16 +3736,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="99" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
@@ -3757,13 +3758,13 @@
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -3774,13 +3775,13 @@
         <v>42736</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -3791,13 +3792,13 @@
         <v>42736</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -3808,10 +3809,10 @@
         <v>42736</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -3841,7 +3842,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -3874,13 +3875,13 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>312</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -3891,16 +3892,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>315</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="F3" s="53" t="s">
         <v>316</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>318</v>
       </c>
       <c r="G3" s="109"/>
       <c r="H3" s="109"/>
@@ -3919,16 +3920,16 @@
       </c>
       <c r="B4" s="111"/>
       <c r="C4" s="112" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D4" s="113" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="114" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F4" s="114" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -3937,16 +3938,16 @@
       </c>
       <c r="B5" s="116"/>
       <c r="C5" s="117" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D5" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
@@ -3955,16 +3956,16 @@
       </c>
       <c r="B6" s="116"/>
       <c r="C6" s="117" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" s="118" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -3973,16 +3974,16 @@
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="122" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D7" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -3991,16 +3992,16 @@
       </c>
       <c r="B8" s="121"/>
       <c r="C8" s="122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D8" s="123" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F8" s="124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4025,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4050,13 +4051,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>325</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>327</v>
       </c>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
@@ -4077,13 +4078,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4092,13 +4093,13 @@
       </c>
       <c r="B4" s="126"/>
       <c r="C4" s="50" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E4" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +4126,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="128" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4150,16 +4151,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -4179,16 +4180,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="131" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F3" s="130" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="14"/>
@@ -4206,16 +4207,16 @@
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="77" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="132" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4224,16 +4225,16 @@
       </c>
       <c r="B5" s="93"/>
       <c r="C5" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4242,16 +4243,16 @@
       </c>
       <c r="B6" s="93"/>
       <c r="C6" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4260,16 +4261,16 @@
       </c>
       <c r="B7" s="93"/>
       <c r="C7" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4278,16 +4279,16 @@
       </c>
       <c r="B8" s="93"/>
       <c r="C8" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4296,16 +4297,16 @@
       </c>
       <c r="B9" s="93"/>
       <c r="C9" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4314,16 +4315,16 @@
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4332,16 +4333,16 @@
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -4350,16 +4351,16 @@
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="80" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4384,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -4408,16 +4409,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>325</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>327</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -4437,16 +4438,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="29"/>
@@ -4464,16 +4465,16 @@
       </c>
       <c r="B4" s="139"/>
       <c r="C4" s="114" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="56" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4482,16 +4483,16 @@
       </c>
       <c r="B5" s="142"/>
       <c r="C5" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4500,16 +4501,16 @@
       </c>
       <c r="B6" s="142"/>
       <c r="C6" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E6" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4518,16 +4519,16 @@
       </c>
       <c r="B7" s="142"/>
       <c r="C7" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4536,16 +4537,16 @@
       </c>
       <c r="B8" s="142"/>
       <c r="C8" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E8" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4554,16 +4555,16 @@
       </c>
       <c r="B9" s="142"/>
       <c r="C9" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E9" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F9" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4572,16 +4573,16 @@
       </c>
       <c r="B10" s="142"/>
       <c r="C10" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4590,16 +4591,16 @@
       </c>
       <c r="B11" s="142"/>
       <c r="C11" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="28" x14ac:dyDescent="0.15">
@@ -4608,16 +4609,16 @@
       </c>
       <c r="B12" s="142"/>
       <c r="C12" s="119" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E12" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -4652,7 +4653,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B1" s="148" t="s">
         <v>11</v>
@@ -4678,16 +4679,16 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="152" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="29"/>
@@ -4708,16 +4709,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F3" s="153" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G3" s="75"/>
       <c r="H3" s="75"/>
@@ -4736,16 +4737,16 @@
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="124" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F4" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4877,7 +4878,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="147" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B1" s="148" t="s">
         <v>11</v>
@@ -4896,19 +4897,19 @@
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D2" s="152" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4919,19 +4920,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F3" s="137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G3" s="153" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4940,19 +4941,19 @@
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="78" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F4" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4961,19 +4962,19 @@
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F5" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G5" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -4982,19 +4983,19 @@
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F6" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G6" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5003,19 +5004,19 @@
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G7" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5024,19 +5025,19 @@
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F8" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G8" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5045,19 +5046,19 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G9" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5066,19 +5067,19 @@
       </c>
       <c r="B10" s="90"/>
       <c r="C10" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F10" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G10" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5087,19 +5088,19 @@
       </c>
       <c r="B11" s="90"/>
       <c r="C11" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F11" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5108,19 +5109,19 @@
       </c>
       <c r="B12" s="90"/>
       <c r="C12" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G12" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5129,19 +5130,19 @@
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F13" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G13" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5150,19 +5151,19 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D14" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F14" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G14" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5171,19 +5172,19 @@
       </c>
       <c r="B15" s="90"/>
       <c r="C15" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D15" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F15" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G15" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5192,19 +5193,19 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F16" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G16" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5213,19 +5214,19 @@
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G17" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5234,19 +5235,19 @@
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E18" s="78" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F18" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G18" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5255,19 +5256,19 @@
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F19" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G19" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5276,19 +5277,19 @@
       </c>
       <c r="B20" s="90"/>
       <c r="C20" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F20" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5297,19 +5298,19 @@
       </c>
       <c r="B21" s="90"/>
       <c r="C21" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F21" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G21" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28" x14ac:dyDescent="0.15">
@@ -5318,19 +5319,19 @@
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="124" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F22" s="146" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G22" s="127" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5348,14 +5349,16 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" x14ac:dyDescent="0.2">
@@ -5462,19 +5465,19 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5488,7 +5491,7 @@
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5504,7 +5507,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -5532,34 +5535,34 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="F2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="G2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>45</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>47</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="28" x14ac:dyDescent="0.15">
@@ -5570,34 +5573,34 @@
         <v>20</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="I3" s="37" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>55</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5606,22 +5609,22 @@
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5630,22 +5633,22 @@
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5654,13 +5657,13 @@
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="40" t="s">
@@ -5669,7 +5672,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5678,22 +5681,22 @@
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5702,22 +5705,22 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1024" x14ac:dyDescent="0.15">
@@ -5725,23 +5728,23 @@
         <v>42736</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9" s="19"/>
       <c r="M9" s="11"/>
@@ -6359,25 +6362,25 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>39</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -6387,23 +6390,23 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -6413,21 +6416,21 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" s="43"/>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.15">
@@ -6473,7 +6476,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="7" t="s">
@@ -6500,31 +6503,31 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="I2" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="J2" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="K2" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -6535,31 +6538,31 @@
         <v>20</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="J3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -6567,22 +6570,22 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G4" s="48">
         <v>1</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -6593,22 +6596,22 @@
         <v>42736</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G5" s="48">
         <v>1</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2">
         <v>2</v>
@@ -6619,22 +6622,22 @@
         <v>42736</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G6" s="48">
         <v>1</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
@@ -6645,22 +6648,22 @@
         <v>42736</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G7" s="48">
         <v>1</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2">
         <v>4</v>
@@ -6672,22 +6675,22 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G8" s="48">
         <v>1</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2">
         <v>5</v>
@@ -6699,22 +6702,22 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="G9" s="48">
         <v>1</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2">
         <v>6</v>
@@ -6726,22 +6729,22 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="48">
         <v>4</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
@@ -6752,22 +6755,22 @@
         <v>42736</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="49">
         <v>3</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2">
         <v>8</v>
@@ -6778,22 +6781,22 @@
         <v>42736</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="49">
         <v>5</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2">
         <v>9</v>
@@ -6832,7 +6835,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -6858,22 +6861,22 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>112</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -6893,7 +6896,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>21</v>
@@ -6905,10 +6908,10 @@
         <v>23</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -6916,16 +6919,16 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>115</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>117</v>
       </c>
       <c r="G4" s="51">
         <v>1</v>
@@ -6947,7 +6950,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" hidden="1" customWidth="1"/>
@@ -6958,7 +6962,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -6994,58 +6998,58 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="K2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>126</v>
-      </c>
       <c r="L2" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="T2" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="T2" s="45" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="56" x14ac:dyDescent="0.15">
@@ -7056,7 +7060,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>21</v>
@@ -7068,46 +7072,46 @@
         <v>23</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H3" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="53" t="s">
+      <c r="K3" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="L3" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="54" t="s">
+      <c r="M3" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="N3" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="M3" s="54" t="s">
+      <c r="O3" s="54" t="s">
         <v>136</v>
-      </c>
-      <c r="N3" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="54" t="s">
-        <v>138</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Q3" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="T3" s="55" t="s">
         <v>140</v>
-      </c>
-      <c r="S3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7115,33 +7119,33 @@
         <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>145</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="58"/>
       <c r="L4" s="58"/>
       <c r="N4" s="58"/>
       <c r="P4" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7150,35 +7154,35 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="57" t="s">
         <v>147</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>149</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="58"/>
       <c r="L5" s="58"/>
       <c r="N5" s="58"/>
       <c r="P5" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7187,38 +7191,38 @@
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>151</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>153</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L6" s="154" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7227,35 +7231,35 @@
       </c>
       <c r="B7" s="42"/>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>154</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>156</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J7" s="58"/>
       <c r="L7" s="58"/>
       <c r="N7" s="58"/>
       <c r="P7" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7264,39 +7268,39 @@
       </c>
       <c r="B8" s="42"/>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>157</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>159</v>
       </c>
       <c r="G8" s="2">
         <v>5</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J8" s="58"/>
       <c r="L8" s="61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7305,39 +7309,39 @@
       </c>
       <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="57" t="s">
         <v>161</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>163</v>
       </c>
       <c r="G9" s="2">
         <v>6</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J9" s="58"/>
       <c r="L9" s="61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7346,35 +7350,35 @@
       </c>
       <c r="B10" s="42"/>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>167</v>
       </c>
       <c r="G10" s="2">
         <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" s="58"/>
       <c r="L10" s="58"/>
       <c r="N10" s="58"/>
       <c r="P10" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7383,41 +7387,41 @@
       </c>
       <c r="B11" s="42"/>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G11" s="2">
         <v>5</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L11" s="61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O11">
         <v>5</v>
       </c>
       <c r="P11" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7426,35 +7430,35 @@
       </c>
       <c r="B12" s="42"/>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="57" t="s">
         <v>172</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>174</v>
       </c>
       <c r="G12" s="2">
         <v>8</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" s="58"/>
       <c r="L12" s="58"/>
       <c r="N12" s="58"/>
       <c r="P12" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7463,35 +7467,35 @@
       </c>
       <c r="B13" s="42"/>
       <c r="C13" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D13" s="56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="2">
         <v>9</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" s="58"/>
       <c r="L13" s="58"/>
       <c r="N13" s="58"/>
       <c r="P13" s="59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14" x14ac:dyDescent="0.15">
@@ -7539,7 +7543,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -7570,43 +7574,43 @@
         <v>15</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="H2" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="J2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="K2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="L2" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M2" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="N2" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="45" t="s">
-        <v>186</v>
-      </c>
       <c r="O2" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -7617,43 +7621,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="H3" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="M3" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="62" t="s">
+      <c r="O3" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -7661,25 +7665,25 @@
         <v>42736</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F4" s="65">
         <v>1</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="65">
         <v>1</v>
       </c>
       <c r="I4" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J4" s="65">
         <v>1</v>
@@ -7690,7 +7694,7 @@
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -7698,25 +7702,25 @@
         <v>42736</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" s="65">
         <v>2</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H5" s="65">
         <v>1</v>
       </c>
       <c r="I5" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J5" s="65">
         <v>1</v>
@@ -7727,7 +7731,7 @@
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -7735,25 +7739,25 @@
         <v>42736</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D6" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="65">
         <v>3</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="65">
         <v>1</v>
       </c>
       <c r="I6" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" s="65">
         <v>1</v>
@@ -7764,7 +7768,7 @@
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -7772,25 +7776,25 @@
         <v>42736</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F7" s="65">
         <v>4</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="65">
         <v>1</v>
       </c>
       <c r="I7" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J7" s="65">
         <v>1</v>
@@ -7801,7 +7805,7 @@
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -7809,25 +7813,25 @@
         <v>42736</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F8" s="65">
         <v>5</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H8" s="65">
         <v>1</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J8" s="65">
         <v>1</v>
@@ -7838,7 +7842,7 @@
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -7846,25 +7850,25 @@
         <v>42736</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="65">
         <v>6</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H9" s="65">
         <v>1</v>
       </c>
       <c r="I9" s="67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J9" s="65">
         <v>1</v>
@@ -7875,7 +7879,7 @@
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -7883,25 +7887,25 @@
         <v>42736</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="65">
         <v>1</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H10" s="65">
         <v>1</v>
       </c>
       <c r="I10" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J10" s="65">
         <v>1</v>
@@ -7918,25 +7922,25 @@
         <v>42736</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F11" s="65">
         <v>2</v>
       </c>
       <c r="G11" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H11" s="65">
         <v>1</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J11" s="65">
         <v>1</v>
@@ -7953,25 +7957,25 @@
         <v>42736</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="65">
         <v>3</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H12" s="65">
         <v>1</v>
       </c>
       <c r="I12" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J12" s="65">
         <v>1</v>
@@ -7988,25 +7992,25 @@
         <v>42736</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F13" s="65">
         <v>4</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H13" s="65">
         <v>1</v>
       </c>
       <c r="I13" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J13" s="65">
         <v>1</v>
@@ -8023,25 +8027,25 @@
         <v>42736</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="65">
         <v>5</v>
       </c>
       <c r="G14" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" s="65">
         <v>1</v>
       </c>
       <c r="I14" s="67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J14" s="65">
         <v>1</v>
@@ -8058,25 +8062,25 @@
         <v>42736</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="65">
         <v>6</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15" s="65">
         <v>1</v>
       </c>
       <c r="I15" s="67" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J15" s="65">
         <v>1</v>
@@ -8093,25 +8097,25 @@
         <v>42736</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" s="65">
         <v>1</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H16" s="65">
         <v>1</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J16" s="65">
         <v>1</v>
@@ -8128,25 +8132,25 @@
         <v>42736</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D17" s="70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" s="65">
         <v>1</v>
       </c>
       <c r="G17" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H17" s="65">
         <v>1</v>
       </c>
       <c r="I17" s="67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J17" s="65">
         <v>1</v>
@@ -8163,25 +8167,25 @@
         <v>42736</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18" s="65">
         <v>1</v>
       </c>
       <c r="G18" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H18" s="65">
         <v>1</v>
       </c>
       <c r="I18" s="67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J18" s="65">
         <v>1</v>
@@ -8198,25 +8202,25 @@
         <v>42736</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E19" s="72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F19" s="65">
         <v>1</v>
       </c>
       <c r="G19" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="65">
         <v>1</v>
       </c>
       <c r="I19" s="67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J19" s="65">
         <v>1</v>
@@ -8233,25 +8237,25 @@
         <v>42736</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" s="72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="65">
         <v>1</v>
       </c>
       <c r="G20" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H20" s="65">
         <v>1</v>
       </c>
       <c r="I20" s="67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J20" s="65">
         <v>1</v>
@@ -8268,25 +8272,25 @@
         <v>42736</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="65">
         <v>1</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H21" s="65">
         <v>1</v>
       </c>
       <c r="I21" s="67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J21" s="65">
         <v>1</v>
@@ -8344,7 +8348,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>11</v>
@@ -8369,13 +8373,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>207</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>209</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -8398,10 +8402,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F3" s="75"/>
       <c r="G3" s="75"/>
@@ -8418,13 +8422,13 @@
         <v>42736</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>212</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -8432,13 +8436,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -8446,13 +8450,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -8460,13 +8464,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -8474,13 +8478,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -8488,13 +8492,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -8502,13 +8506,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -8516,13 +8520,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -8530,13 +8534,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -8544,13 +8548,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -8558,13 +8562,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -8572,13 +8576,13 @@
         <v>42736</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -8586,13 +8590,13 @@
         <v>42736</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -8600,13 +8604,13 @@
         <v>42736</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
